--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2_cvd_tyg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826E345D-0B77-4031-8B63-968062B075D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC09110-C68C-4F5C-B5F7-FF32AAC8DB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E79919E9-111D-4964-AFA3-7C63A2128F49}"/>
   </bookViews>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14BF9326-B9FE-440D-9BB5-E32784224438}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
